--- a/medicine/Enfance/Prise_de_tête/Prise_de_tête.xlsx
+++ b/medicine/Enfance/Prise_de_tête/Prise_de_tête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prise_de_t%C3%AAte</t>
+          <t>Prise_de_tête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prise de tête est le dix-huitième tome de la série Journal d'un dégonflé. Il a été écrit et illustré par Jeff Kinney. Le livre, sorti dans sa version originale le 24 octobre 2023, est publié en français le 13 novembre 2023.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prise_de_t%C3%AAte</t>
+          <t>Prise_de_tête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avril
-Greg s'interroge sur les capacités de mémorisation et les journées scolaires. Son collège connaît quelques difficultés. Certains professeurs n'enseignent pas selon le mode adapté. Un soir, un reportage annonce qu'il s'agit de l'établissement le plus mal classé scolairement. En conséquence, la principale du collège est renvoyée. Á la place, c'est son prédécesseur, M Lebas, qui revient. Greg est surpris car Lebas dirigeait l'établissement à l'époque où Rodrick avait son âge et était heureux de partir en retraite.
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greg s'interroge sur les capacités de mémorisation et les journées scolaires. Son collège connaît quelques difficultés. Certains professeurs n'enseignent pas selon le mode adapté. Un soir, un reportage annonce qu'il s'agit de l'établissement le plus mal classé scolairement. En conséquence, la principale du collège est renvoyée. Á la place, c'est son prédécesseur, M Lebas, qui revient. Greg est surpris car Lebas dirigeait l'établissement à l'époque où Rodrick avait son âge et était heureux de partir en retraite.
 Le retour de M. Lebas implique de nouvelles règles comme la création de clubs VIP, ou encore l'utilisation de passes spéciaux. Les élèves mettent au point un système de triche, mais Greg parle alors de plusieurs personnes qui expliquent en quoi cette technique est immorale. Il évoque pour sa part un comédien qui est venu parler aux collégiens ainsi que Larry Mack, un ancien principal écroué pour avoir vendu des voitures avec l'argent des fournitures scolaires qu'il détournait. Pour autant, M Lebas va plus loin en rationnant les caradogs, une sorte de friandise locale créée par accident par la responsable de la cafétéria, et en neutralisant certaines ailes afin de les louer à divers professionnels. Greg est d'ailleurs embarrassé en voyant sa mère s'inscrire à des cours de yoga dans son collège.
-Mai
-M. Lebas continue à instaurer de nouvelles mesures au collège. Par exemple, il embauche un robot pour effectuer les travaux ménagers, et il se sert de nombreux sponsors publicitaires pour sauver le collège. Un soir, une vente aux enchères est organisée et Greg y assiste avec sa famille. Contre toute attente, Susan,bien malgré elle, gagne un lot et Greg se retrouve principal pour la journée. Il doit alors assurer de nombreuses missions, telles que s'occuper des élèves,des professeurs et de la paperasse. Il lui faut aussi embrasser un porcelet, quelque chose que M Lebas n'aurait pas pu accomplir à cause de son allergie envers les animaux fermiers.
-Malheureusement, les élèves sont censés passer un ultime test afin de pouvoir réussir. Faute de quoi, le collège fermera et ils se retrouveront dans deux établissements différents. Greg est dans un premier temps heureux de savoir qu'il ira à Fusion Tech, un collège ultra moderne mais son copain Robert, lui, se retrouvera à Slacksville, dans un bâtiment encore plus délabré que le collège où ils sont élèves. Cependant, un de leurs camarades part en internat et la liste alphabétique s'en retrouve changée.  Les lieux d'affectation de Greg et de Robert s'inversent et le collège ferme, faute d'avoir pu obtenir un score satisfaisant.
-Greg se rend donc à Slacksville et s'aperçoit que comparé à ses camarades, il est un élève très intelligent. Grisé par son succès, il vend la recette des caradogs et se lie d'amitié avec une certaine Sophie. Cependant, il s'aperçoit un peu tard que celle-ci n'est autre que la petite fille de Larry Mack. Larry Mack Jr, le père de Greg, est impressionné par ses capacités quand il entend l'adolescent discuter en faux latin avec un de ses anciens professeurs renvoyés qui travaille désormais dans un restaurant.
-Juin
-En conséquence, le collège rouvre grâce à son aide, et il se rend désormais à la moitié des cours de Greg. Mais Sophie le quitte et les autres élèves lui en veulent car ils étaient heureux dans leurs nouveaux collèges. L'histoire se termine avec Greg qui explique que M Lebas est parti définitivement en retraite car il s'est acheté une maison dans les Caraïbes et que le robot sert de remplaçant intérimaire.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prise_de_t%C3%AAte</t>
+          <t>Prise_de_tête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +559,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M. Lebas continue à instaurer de nouvelles mesures au collège. Par exemple, il embauche un robot pour effectuer les travaux ménagers, et il se sert de nombreux sponsors publicitaires pour sauver le collège. Un soir, une vente aux enchères est organisée et Greg y assiste avec sa famille. Contre toute attente, Susan,bien malgré elle, gagne un lot et Greg se retrouve principal pour la journée. Il doit alors assurer de nombreuses missions, telles que s'occuper des élèves,des professeurs et de la paperasse. Il lui faut aussi embrasser un porcelet, quelque chose que M Lebas n'aurait pas pu accomplir à cause de son allergie envers les animaux fermiers.
+Malheureusement, les élèves sont censés passer un ultime test afin de pouvoir réussir. Faute de quoi, le collège fermera et ils se retrouveront dans deux établissements différents. Greg est dans un premier temps heureux de savoir qu'il ira à Fusion Tech, un collège ultra moderne mais son copain Robert, lui, se retrouvera à Slacksville, dans un bâtiment encore plus délabré que le collège où ils sont élèves. Cependant, un de leurs camarades part en internat et la liste alphabétique s'en retrouve changée.  Les lieux d'affectation de Greg et de Robert s'inversent et le collège ferme, faute d'avoir pu obtenir un score satisfaisant.
+Greg se rend donc à Slacksville et s'aperçoit que comparé à ses camarades, il est un élève très intelligent. Grisé par son succès, il vend la recette des caradogs et se lie d'amitié avec une certaine Sophie. Cependant, il s'aperçoit un peu tard que celle-ci n'est autre que la petite fille de Larry Mack. Larry Mack Jr, le père de Greg, est impressionné par ses capacités quand il entend l'adolescent discuter en faux latin avec un de ses anciens professeurs renvoyés qui travaille désormais dans un restaurant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prise_de_tête</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prise_de_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En conséquence, le collège rouvre grâce à son aide, et il se rend désormais à la moitié des cours de Greg. Mais Sophie le quitte et les autres élèves lui en veulent car ils étaient heureux dans leurs nouveaux collèges. L'histoire se termine avec Greg qui explique que M Lebas est parti définitivement en retraite car il s'est acheté une maison dans les Caraïbes et que le robot sert de remplaçant intérimaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prise_de_tête</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prise_de_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le livre est de couleur vert turquoise.
 M. Lebas joue le rôle du méchant dans ce roman.
